--- a/fancky/生活/全.xlsx
+++ b/fancky/生活/全.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fancky\git\Doc\fancky\生活\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A6AB75-E4A7-48D1-A90C-5A34E3A41BDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16754629-C5A8-4E9A-A581-CDC7AE3211D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4485" yWindow="4845" windowWidth="22200" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,11 +463,12 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
     <col min="4" max="4" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -511,7 +512,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -556,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>18800</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -602,7 +603,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="1">
         <f>SUM(C2:C12)</f>
-        <v>30950</v>
+        <v>31250</v>
       </c>
     </row>
   </sheetData>
